--- a/test1.xlsx
+++ b/test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlackFloat\Desktop\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FEA806-DD72-4AF5-925F-9B42383AF826}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7482D4BF-8A2C-4F1A-931E-B417A7753749}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{D1B964EB-079B-4404-A000-2DEB7A01503C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D1B964EB-079B-4404-A000-2DEB7A01503C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -47,6 +47,13 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,7 +128,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{931A2A7C-3C5B-48BD-90BF-292DF5A3A22F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -481,7 +488,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B1">
         <v>456</v>
